--- a/results/I3_N5_M2_T30_C200_DepLowerLeft_s4_mean_res.xlsx
+++ b/results/I3_N5_M2_T30_C200_DepLowerLeft_s4_mean_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>81.15817787507422</v>
+        <v>36.55086884059591</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1740000247955322</v>
+        <v>0.09599995613098145</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38.43817787507424</v>
+        <v>36.5508688405959</v>
       </c>
     </row>
     <row r="7">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>42.72</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -634,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -656,7 +656,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -667,7 +667,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -678,7 +678,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -769,7 +769,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -852,7 +852,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>25.32864898449871</v>
+        <v>25.33845519167733</v>
       </c>
     </row>
     <row r="4">
@@ -860,7 +860,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20</v>
+        <v>20.56430227689511</v>
       </c>
     </row>
     <row r="5">
@@ -868,7 +868,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20</v>
+        <v>21.04888644878487</v>
       </c>
     </row>
     <row r="6">
@@ -876,7 +876,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
+        <v>22.18025400884752</v>
       </c>
     </row>
     <row r="7">
@@ -884,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>26.65075183719842</v>
+        <v>27.68109939842174</v>
       </c>
     </row>
     <row r="8">
@@ -999,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>191.2280000000283</v>
+        <v>123.4</v>
       </c>
     </row>
     <row r="4">
@@ -1010,7 +1010,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>87.37200000000486</v>
+        <v>61.4</v>
       </c>
     </row>
     <row r="5">
@@ -1021,7 +1021,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>120.520999999959</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
@@ -1032,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>64.27300000002018</v>
+        <v>125.6</v>
       </c>
     </row>
     <row r="7">
@@ -1043,7 +1043,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>187.7739999998876</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8">
@@ -1054,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>191.2280000000683</v>
+        <v>123.4</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1065,7 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>187.7739999998601</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1203,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>4.272</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
